--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AFDFD38-8FBF-40C4-9121-14CD3CBB154A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA50AEB1-A7DA-4E30-A205-63DFD14F10C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="3300" windowWidth="21600" windowHeight="11370" xr2:uid="{3ADA0CD0-B551-4A23-96F1-4D6BD76E74B5}"/>
+    <workbookView xWindow="4275" yWindow="3510" windowWidth="21600" windowHeight="11370" xr2:uid="{3ADA0CD0-B551-4A23-96F1-4D6BD76E74B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,27 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,59 +435,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7637187-2EF2-4EEF-8EF2-ACE3316319A3}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>376.8</v>
-      </c>
-      <c r="B1">
-        <v>0.1</v>
-      </c>
-      <c r="C1">
-        <v>1.5</v>
-      </c>
-      <c r="D1">
-        <v>149</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>333.4</v>
+        <v>376.8</v>
       </c>
       <c r="B2">
-        <v>8.8200000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
         <v>1.5</v>
       </c>
       <c r="D2">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>502.4</v>
+        <v>333.4</v>
       </c>
       <c r="B3">
-        <v>7.4999999999999997E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="C3">
         <v>1.5</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>448.8</v>
+        <v>502.4</v>
       </c>
       <c r="B4">
         <v>7.4999999999999997E-2</v>
@@ -475,21 +496,21 @@
         <v>1.5</v>
       </c>
       <c r="D4">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>408.2</v>
+        <v>448.8</v>
       </c>
       <c r="B5">
-        <v>8.6499999999999994E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="D5">
-        <v>154</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,13 +518,13 @@
         <v>408.2</v>
       </c>
       <c r="B6">
-        <v>3.85E-2</v>
+        <v>8.6499999999999994E-2</v>
       </c>
       <c r="C6">
         <v>0.8</v>
       </c>
       <c r="D6">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -511,13 +532,13 @@
         <v>408.2</v>
       </c>
       <c r="B7">
-        <v>8.6499999999999994E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="C7">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="D7">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -525,27 +546,27 @@
         <v>408.2</v>
       </c>
       <c r="B8">
-        <v>3.85E-2</v>
+        <v>8.6499999999999994E-2</v>
       </c>
       <c r="C8">
         <v>1.2</v>
       </c>
       <c r="D8">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>533.79999999999995</v>
+        <v>408.2</v>
       </c>
       <c r="B9">
-        <v>6.6199999999999995E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="D9">
-        <v>95</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,13 +574,13 @@
         <v>533.79999999999995</v>
       </c>
       <c r="B10">
-        <v>2.9399999999999999E-2</v>
+        <v>6.6199999999999995E-2</v>
       </c>
       <c r="C10">
         <v>0.8</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,13 +588,13 @@
         <v>533.79999999999995</v>
       </c>
       <c r="B11">
-        <v>6.6199999999999995E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="C11">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,12 +602,26 @@
         <v>533.79999999999995</v>
       </c>
       <c r="B12">
-        <v>2.9399999999999999E-2</v>
+        <v>6.6199999999999995E-2</v>
       </c>
       <c r="C12">
         <v>1.2</v>
       </c>
       <c r="D12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>533.79999999999995</v>
+      </c>
+      <c r="B13">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.2</v>
+      </c>
+      <c r="D13">
         <v>92</v>
       </c>
     </row>
